--- a/data/waste_sum.xlsx
+++ b/data/waste_sum.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mgold\Documents\Moritz\03_Projects\Sanergy\R\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mgold\Documents\Moritz\Shiny\BSF_app\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9195"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -575,27 +575,27 @@
   <dimension ref="A1:N70"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="J71" sqref="J71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="32.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="23.85546875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="32.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="23.88671875" style="2" customWidth="1"/>
     <col min="7" max="8" width="6" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.7109375" customWidth="1"/>
+    <col min="9" max="9" width="8.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.6640625" customWidth="1"/>
     <col min="14" max="14" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -639,7 +639,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>20</v>
       </c>
@@ -681,7 +681,7 @@
         <v>25.817280591133599</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>20</v>
       </c>
@@ -723,7 +723,7 @@
         <v>21.314825999670401</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>20</v>
       </c>
@@ -765,7 +765,7 @@
         <v>23.392314686674101</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>20</v>
       </c>
@@ -805,7 +805,7 @@
         <v>16.244479999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>23</v>
       </c>
@@ -847,7 +847,7 @@
         <v>6.1018831817880699</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>23</v>
       </c>
@@ -887,7 +887,7 @@
         <v>6.7827200000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>24</v>
       </c>
@@ -927,7 +927,7 @@
         <v>18.30528</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>24</v>
       </c>
@@ -967,7 +967,7 @@
         <v>13.3056</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>24</v>
       </c>
@@ -1007,7 +1007,7 @@
         <v>16.8</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>24</v>
       </c>
@@ -1047,7 +1047,7 @@
         <v>23.81568</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>24</v>
       </c>
@@ -1087,7 +1087,7 @@
         <v>17.884160000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>24</v>
       </c>
@@ -1127,7 +1127,7 @@
         <v>11.90784</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>24</v>
       </c>
@@ -1167,7 +1167,7 @@
         <v>14.192640000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1207,7 +1207,7 @@
         <v>16.889600000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>24</v>
       </c>
@@ -1247,7 +1247,7 @@
         <v>36.61056</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>25</v>
       </c>
@@ -1287,7 +1287,7 @@
         <v>10.07104</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>25</v>
       </c>
@@ -1327,7 +1327,7 @@
         <v>14.26432</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>25</v>
       </c>
@@ -1367,7 +1367,7 @@
         <v>10.617599999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>26</v>
       </c>
@@ -1407,7 +1407,7 @@
         <v>17.91104</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>26</v>
       </c>
@@ -1447,7 +1447,7 @@
         <v>34.03904</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>27</v>
       </c>
@@ -1489,7 +1489,7 @@
         <v>21.951007910964599</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>27</v>
       </c>
@@ -1529,7 +1529,7 @@
         <v>16.128</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>16</v>
       </c>
@@ -1571,7 +1571,7 @@
         <v>14.4563642800954</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>17</v>
       </c>
@@ -1611,7 +1611,7 @@
         <v>14.219519999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>29</v>
       </c>
@@ -1653,7 +1653,7 @@
         <v>16.877896190137498</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>10</v>
       </c>
@@ -1691,7 +1691,7 @@
         <v>18.3232</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>18</v>
       </c>
@@ -1733,7 +1733,7 @@
         <v>14.9900550070146</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>31</v>
       </c>
@@ -1775,7 +1775,7 @@
         <v>19.105344057209798</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>31</v>
       </c>
@@ -1817,7 +1817,7 @@
         <v>18.586604436229202</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>9</v>
       </c>
@@ -1855,7 +1855,7 @@
         <v>10.4384</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>8</v>
       </c>
@@ -1895,7 +1895,7 @@
         <v>25.76896</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>30</v>
       </c>
@@ -1937,7 +1937,7 @@
         <v>24.4483865898682</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>30</v>
       </c>
@@ -1979,7 +1979,7 @@
         <v>24.1620767990293</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>30</v>
       </c>
@@ -2021,7 +2021,7 @@
         <v>24.774786750195801</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>20</v>
       </c>
@@ -2063,7 +2063,7 @@
         <v>28.856119576379701</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>19</v>
       </c>
@@ -2103,7 +2103,7 @@
         <v>41.729533450493904</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>28</v>
       </c>
@@ -2145,7 +2145,7 @@
         <v>33.392073301010598</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>28</v>
       </c>
@@ -2187,7 +2187,7 @@
         <v>15.831813919113101</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>28</v>
       </c>
@@ -2229,7 +2229,7 @@
         <v>13.5913375583931</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>8</v>
       </c>
@@ -2267,7 +2267,7 @@
         <v>22.6</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>17</v>
       </c>
@@ -2305,7 +2305,7 @@
         <v>26.6</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>27</v>
       </c>
@@ -2345,7 +2345,7 @@
         <v>22.049689440993792</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>25</v>
       </c>
@@ -2385,7 +2385,7 @@
         <v>4.5595854922279795</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>43</v>
       </c>
@@ -2425,7 +2425,7 @@
         <v>40.852390852390847</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>27</v>
       </c>
@@ -2465,7 +2465,7 @@
         <v>13.880126182965299</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>27</v>
       </c>
@@ -2505,7 +2505,7 @@
         <v>13.236814891416754</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
         <v>31</v>
       </c>
@@ -2545,7 +2545,7 @@
         <v>15.534979423868311</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
         <v>39</v>
       </c>
@@ -2581,7 +2581,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
         <v>40</v>
       </c>
@@ -2619,7 +2619,7 @@
         <v>15.3</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
         <v>29</v>
       </c>
@@ -2658,7 +2658,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
         <v>8</v>
       </c>
@@ -2697,7 +2697,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A53" s="9" t="s">
         <v>43</v>
       </c>
@@ -2735,7 +2735,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A54" s="9" t="s">
         <v>43</v>
       </c>
@@ -2775,7 +2775,7 @@
         <v>9.1999999999999993</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A55" s="9" t="s">
         <v>43</v>
       </c>
@@ -2815,7 +2815,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A56" s="9" t="s">
         <v>43</v>
       </c>
@@ -2855,7 +2855,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A57" s="9" t="s">
         <v>43</v>
       </c>
@@ -2895,7 +2895,7 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A58" s="9" t="s">
         <v>43</v>
       </c>
@@ -2935,7 +2935,7 @@
         <v>10.9</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A59" s="9" t="s">
         <v>43</v>
       </c>
@@ -2975,7 +2975,7 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>23</v>
       </c>
@@ -3013,7 +3013,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>25</v>
       </c>
@@ -3052,7 +3052,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>25</v>
       </c>
@@ -3090,7 +3090,7 @@
         <v>11.7</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
         <v>8</v>
       </c>
@@ -3130,7 +3130,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
         <v>26</v>
       </c>
@@ -3168,7 +3168,7 @@
         <v>20.643552000000003</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>25</v>
       </c>
@@ -3204,7 +3204,7 @@
         <v>5.8274999999999997</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
         <v>27</v>
       </c>
@@ -3229,7 +3229,7 @@
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
       <c r="J66" s="1">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="K66" s="1"/>
       <c r="L66" s="1">
@@ -3242,7 +3242,7 @@
         <v>3.0334266666666663</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
         <v>40</v>
       </c>
@@ -3267,7 +3267,7 @@
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
       <c r="J67" s="1">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="K67" s="1"/>
       <c r="L67" s="1">
@@ -3280,7 +3280,7 @@
         <v>9.3704999999999998</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
         <v>17</v>
       </c>
@@ -3318,7 +3318,7 @@
         <v>9.4924800000000005</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>27</v>
       </c>
@@ -3356,7 +3356,7 @@
         <v>3.4045666666666663</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
         <v>24</v>
       </c>
